--- a/data/trans_orig/P1423-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1423-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D75E6804-799D-4BFC-82A1-20B1C725094C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5B3799B-5D1E-4FEE-A28B-EC279CC221FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0CDBA47F-9152-4D0C-9828-67C2CCED143D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{24BF5532-0E64-4E1B-9FFB-6AA14DBD3786}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="391">
   <si>
     <t>Población con diagnóstico de depresión o ansiedad en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -95,988 +95,1045 @@
     <t>7,04%</t>
   </si>
   <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
   </si>
   <si>
     <t>3,48%</t>
   </si>
   <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de depresión o ansiedad en 2012 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de depresión o ansiedad en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
     <t>1,65%</t>
   </si>
   <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
   </si>
   <si>
     <t>5,25%</t>
   </si>
   <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
   </si>
   <si>
     <t>94,75%</t>
   </si>
   <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de depresión o ansiedad en 2012 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de depresión o ansiedad en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
+    <t>97,57%</t>
   </si>
   <si>
     <t>90,79%</t>
   </si>
   <si>
-    <t>88,51%</t>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
   </si>
   <si>
     <t>93,52%</t>
   </si>
   <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
   </si>
   <si>
     <t>4,48%</t>
   </si>
   <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
     <t>3,26%</t>
   </si>
   <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
   </si>
   <si>
     <t>96,74%</t>
   </si>
   <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
   </si>
   <si>
     <t>89,81%</t>
   </si>
   <si>
-    <t>88,74%</t>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
   </si>
   <si>
     <t>93,2%</t>
   </si>
   <si>
-    <t>92,49%</t>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
   </si>
   <si>
     <t>Población con diagnóstico de depresión o ansiedad en 2023 (Tasa respuesta: 100,0%)</t>
@@ -1566,7 +1623,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B57ED0AD-3E69-40B2-9736-AFA9D4657F96}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA537F88-3F35-4604-875B-DD8E175E3B79}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2392,10 +2449,10 @@
         <v>86</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2410,13 +2467,13 @@
         <v>654676</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H18" s="7">
         <v>641</v>
@@ -2425,13 +2482,13 @@
         <v>629721</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M18" s="7">
         <v>1257</v>
@@ -2440,13 +2497,13 @@
         <v>1284397</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P18" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="Q18" s="7" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2502,7 +2559,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2520,7 +2577,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2535,7 +2592,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2550,7 +2607,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2565,13 +2622,13 @@
         <v>33136</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="H21" s="7">
         <v>78</v>
@@ -2580,13 +2637,13 @@
         <v>82820</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M21" s="7">
         <v>114</v>
@@ -2595,13 +2652,13 @@
         <v>115955</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2616,13 +2673,13 @@
         <v>909086</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="H22" s="7">
         <v>919</v>
@@ -2631,13 +2688,13 @@
         <v>955792</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="M22" s="7">
         <v>1877</v>
@@ -2849,7 +2906,7 @@
         <v>6159</v>
       </c>
       <c r="N26" s="7">
-        <v>6297244</v>
+        <v>6297245</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>134</v>
@@ -2900,7 +2957,7 @@
         <v>6511</v>
       </c>
       <c r="N27" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>26</v>
@@ -2935,7 +2992,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E3D9BB-F079-464B-8024-58992786213B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4C92D5D-6B4F-4F9A-BB2B-30E1D2830166}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3507,7 +3564,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3871,7 +3928,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3904,7 +3961,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3919,7 +3976,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3934,13 +3991,13 @@
         <v>44031</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>41</v>
+        <v>217</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>66</v>
+        <v>219</v>
       </c>
       <c r="H21" s="7">
         <v>116</v>
@@ -3949,13 +4006,13 @@
         <v>120302</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M21" s="7">
         <v>156</v>
@@ -3964,13 +4021,13 @@
         <v>164333</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3985,13 +4042,13 @@
         <v>903708</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>51</v>
+        <v>226</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>74</v>
+        <v>227</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="H22" s="7">
         <v>887</v>
@@ -4000,13 +4057,13 @@
         <v>931599</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="M22" s="7">
         <v>1757</v>
@@ -4015,13 +4072,13 @@
         <v>1835307</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4140,13 +4197,13 @@
         <v>142680</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="H25" s="7">
         <v>382</v>
@@ -4155,28 +4212,28 @@
         <v>405603</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="M25" s="7">
         <v>510</v>
       </c>
       <c r="N25" s="7">
-        <v>548283</v>
+        <v>548284</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4191,13 +4248,13 @@
         <v>3284099</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="H26" s="7">
         <v>2914</v>
@@ -4206,13 +4263,13 @@
         <v>3149495</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="M26" s="7">
         <v>5995</v>
@@ -4221,13 +4278,13 @@
         <v>6433594</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4269,7 +4326,7 @@
         <v>6505</v>
       </c>
       <c r="N27" s="7">
-        <v>6981877</v>
+        <v>6981878</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>26</v>
@@ -4304,7 +4361,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF168ED0-7350-4D47-B274-99D6FBB32D78}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA2B8586-8578-4CE8-9823-D2D7B38218D7}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4321,7 +4378,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4434,7 +4491,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4449,7 +4506,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>21</v>
+        <v>255</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4464,7 +4521,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4479,13 +4536,13 @@
         <v>4610</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="H5" s="7">
         <v>17</v>
@@ -4494,13 +4551,13 @@
         <v>17036</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="M5" s="7">
         <v>21</v>
@@ -4509,13 +4566,13 @@
         <v>21646</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4530,13 +4587,13 @@
         <v>111936</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="H6" s="7">
         <v>98</v>
@@ -4545,13 +4602,13 @@
         <v>96324</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="M6" s="7">
         <v>207</v>
@@ -4560,13 +4617,13 @@
         <v>208260</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4640,7 +4697,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4670,7 +4727,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4685,13 +4742,13 @@
         <v>13709</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>162</v>
+        <v>277</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>273</v>
+        <v>161</v>
       </c>
       <c r="H9" s="7">
         <v>59</v>
@@ -4700,13 +4757,13 @@
         <v>61869</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="M9" s="7">
         <v>73</v>
@@ -4715,13 +4772,13 @@
         <v>75578</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4736,13 +4793,13 @@
         <v>544545</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>172</v>
+        <v>285</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>280</v>
+        <v>170</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="H10" s="7">
         <v>492</v>
@@ -4751,13 +4808,13 @@
         <v>497610</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="M10" s="7">
         <v>1017</v>
@@ -4766,13 +4823,13 @@
         <v>1042155</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4876,7 +4933,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4891,13 +4948,13 @@
         <v>22492</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>18</v>
+        <v>295</v>
       </c>
       <c r="H13" s="7">
         <v>85</v>
@@ -4906,13 +4963,13 @@
         <v>94301</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="M13" s="7">
         <v>107</v>
@@ -4921,13 +4978,13 @@
         <v>116793</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>277</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4942,13 +4999,13 @@
         <v>999939</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>29</v>
+        <v>303</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="H14" s="7">
         <v>892</v>
@@ -4957,13 +5014,13 @@
         <v>948612</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>282</v>
+        <v>306</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="M14" s="7">
         <v>1821</v>
@@ -4972,13 +5029,13 @@
         <v>1948551</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>285</v>
+        <v>309</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5067,7 +5124,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5082,7 +5139,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5097,13 +5154,13 @@
         <v>27756</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>162</v>
+        <v>314</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="H17" s="7">
         <v>66</v>
@@ -5112,13 +5169,13 @@
         <v>72276</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>168</v>
+        <v>317</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="M17" s="7">
         <v>92</v>
@@ -5127,13 +5184,13 @@
         <v>100032</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5148,13 +5205,13 @@
         <v>731796</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>172</v>
+        <v>324</v>
       </c>
       <c r="H18" s="7">
         <v>670</v>
@@ -5163,13 +5220,13 @@
         <v>712735</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>178</v>
+        <v>327</v>
       </c>
       <c r="M18" s="7">
         <v>1340</v>
@@ -5178,13 +5235,13 @@
         <v>1444531</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5240,7 +5297,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5288,7 +5345,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5303,13 +5360,13 @@
         <v>42002</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>318</v>
+        <v>62</v>
       </c>
       <c r="H21" s="7">
         <v>101</v>
@@ -5318,13 +5375,13 @@
         <v>115714</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="M21" s="7">
         <v>142</v>
@@ -5333,13 +5390,13 @@
         <v>157716</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5354,13 +5411,13 @@
         <v>895565</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>326</v>
+        <v>72</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="H22" s="7">
         <v>858</v>
@@ -5369,13 +5426,13 @@
         <v>928065</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="M22" s="7">
         <v>1749</v>
@@ -5384,13 +5441,13 @@
         <v>1823630</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5509,13 +5566,13 @@
         <v>110570</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>317</v>
+        <v>347</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="H25" s="7">
         <v>328</v>
@@ -5524,13 +5581,13 @@
         <v>361195</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>320</v>
+        <v>351</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="M25" s="7">
         <v>435</v>
@@ -5539,13 +5596,13 @@
         <v>471765</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>22</v>
+        <v>354</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>339</v>
+        <v>355</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5560,13 +5617,13 @@
         <v>3283780</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>327</v>
+        <v>356</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="H26" s="7">
         <v>3010</v>
@@ -5575,13 +5632,13 @@
         <v>3183347</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>330</v>
+        <v>361</v>
       </c>
       <c r="M26" s="7">
         <v>6134</v>
@@ -5590,13 +5647,13 @@
         <v>6467127</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>344</v>
+        <v>362</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>345</v>
+        <v>363</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>31</v>
+        <v>364</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5673,7 +5730,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F7F0DEA-CEA3-4FAD-A5B1-20F467FF5A07}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB1327E0-0981-41E7-BEF3-506DB574D91B}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5690,7 +5747,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>346</v>
+        <v>365</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5800,7 +5857,7 @@
         <v>24</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>347</v>
+        <v>366</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>26</v>
@@ -5815,7 +5872,7 @@
         <v>24</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>348</v>
+        <v>367</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>26</v>
@@ -5830,7 +5887,7 @@
         <v>24</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>349</v>
+        <v>368</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>26</v>
@@ -5854,7 +5911,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>350</v>
+        <v>369</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5869,7 +5926,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -5884,7 +5941,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5905,7 +5962,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>350</v>
+        <v>369</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5920,7 +5977,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -5935,7 +5992,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6006,7 +6063,7 @@
         <v>24</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>26</v>
@@ -6021,7 +6078,7 @@
         <v>24</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>354</v>
+        <v>373</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>26</v>
@@ -6036,7 +6093,7 @@
         <v>24</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>355</v>
+        <v>374</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>26</v>
@@ -6060,7 +6117,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>356</v>
+        <v>375</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -6075,7 +6132,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -6090,7 +6147,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>357</v>
+        <v>376</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6111,7 +6168,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>356</v>
+        <v>375</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -6126,7 +6183,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -6141,7 +6198,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>357</v>
+        <v>376</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6212,7 +6269,7 @@
         <v>24</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>358</v>
+        <v>377</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>26</v>
@@ -6227,7 +6284,7 @@
         <v>24</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>26</v>
@@ -6242,7 +6299,7 @@
         <v>24</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>360</v>
+        <v>379</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>26</v>
@@ -6281,7 +6338,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -6296,7 +6353,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6332,7 +6389,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -6347,7 +6404,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6418,7 +6475,7 @@
         <v>24</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>362</v>
+        <v>381</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>26</v>
@@ -6433,7 +6490,7 @@
         <v>24</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>363</v>
+        <v>382</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>26</v>
@@ -6448,7 +6505,7 @@
         <v>24</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>364</v>
+        <v>383</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>26</v>
@@ -6487,7 +6544,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -6538,7 +6595,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -6609,7 +6666,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6624,7 +6681,7 @@
         <v>24</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>354</v>
+        <v>373</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>26</v>
@@ -6639,7 +6696,7 @@
         <v>24</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>355</v>
+        <v>374</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>26</v>
@@ -6654,7 +6711,7 @@
         <v>24</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>365</v>
+        <v>384</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>26</v>
@@ -6678,7 +6735,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -6693,7 +6750,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>357</v>
+        <v>376</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -6708,7 +6765,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>366</v>
+        <v>385</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6729,7 +6786,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -6744,7 +6801,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>357</v>
+        <v>376</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -6759,7 +6816,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>366</v>
+        <v>385</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6830,7 +6887,7 @@
         <v>24</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>367</v>
+        <v>386</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>26</v>
@@ -6845,7 +6902,7 @@
         <v>24</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>26</v>
@@ -6854,13 +6911,13 @@
         <v>8743</v>
       </c>
       <c r="N24" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>24</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>26</v>
@@ -6899,7 +6956,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -6914,7 +6971,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>371</v>
+        <v>390</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6950,7 +7007,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -6965,7 +7022,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>371</v>
+        <v>390</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7007,7 +7064,7 @@
         <v>8743</v>
       </c>
       <c r="N27" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>26</v>

--- a/data/trans_orig/P1423-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1423-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5B3799B-5D1E-4FEE-A28B-EC279CC221FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7D91F79-A5CC-4607-965F-B303A89B22DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{24BF5532-0E64-4E1B-9FFB-6AA14DBD3786}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D99F16D9-6D1E-4344-BCFA-E4052F16F6C0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="383">
   <si>
     <t>Población con diagnóstico de depresión o ansiedad en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>No procede</t>
@@ -95,19 +95,19 @@
     <t>7,04%</t>
   </si>
   <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
   </si>
   <si>
     <t>3,48%</t>
   </si>
   <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
   </si>
   <si>
     <t>No</t>
@@ -125,22 +125,22 @@
     <t>92,96%</t>
   </si>
   <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
   </si>
   <si>
     <t>96,52%</t>
   </si>
   <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>2/10</t>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0,33%</t>
@@ -155,7 +155,7 @@
     <t>2,82%</t>
   </si>
   <si>
-    <t>1,67%</t>
+    <t>1,63%</t>
   </si>
   <si>
     <t>4,35%</t>
@@ -173,10 +173,7 @@
     <t>4,59%</t>
   </si>
   <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
+    <t>5,99%</t>
   </si>
   <si>
     <t>97,18%</t>
@@ -185,7 +182,7 @@
     <t>95,65%</t>
   </si>
   <si>
-    <t>98,33%</t>
+    <t>98,37%</t>
   </si>
   <si>
     <t>93,63%</t>
@@ -200,13 +197,10 @@
     <t>95,41%</t>
   </si>
   <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>0,21%</t>
@@ -218,58 +212,58 @@
     <t>2,92%</t>
   </si>
   <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
   </si>
   <si>
     <t>7,8%</t>
   </si>
   <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
   </si>
   <si>
     <t>5,37%</t>
   </si>
   <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
   </si>
   <si>
     <t>97,08%</t>
   </si>
   <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
   </si>
   <si>
     <t>92,2%</t>
   </si>
   <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
   </si>
   <si>
     <t>94,63%</t>
   </si>
   <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>0,3%</t>
@@ -284,49 +278,55 @@
     <t>3,51%</t>
   </si>
   <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
   </si>
   <si>
     <t>7,91%</t>
   </si>
   <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
   </si>
   <si>
     <t>5,72%</t>
   </si>
   <si>
-    <t>7,06%</t>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
   </si>
   <si>
     <t>96,49%</t>
   </si>
   <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
   </si>
   <si>
     <t>92,09%</t>
   </si>
   <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
   </si>
   <si>
     <t>94,28%</t>
   </si>
   <si>
-    <t>92,94%</t>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -341,25 +341,25 @@
     <t>3,52%</t>
   </si>
   <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
   </si>
   <si>
     <t>7,97%</t>
   </si>
   <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
   </si>
   <si>
     <t>5,85%</t>
   </si>
   <si>
-    <t>4,8%</t>
+    <t>4,79%</t>
   </si>
   <si>
     <t>6,91%</t>
@@ -368,19 +368,19 @@
     <t>96,48%</t>
   </si>
   <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
   </si>
   <si>
     <t>92,03%</t>
   </si>
   <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
   </si>
   <si>
     <t>94,15%</t>
@@ -389,7 +389,7 @@
     <t>93,09%</t>
   </si>
   <si>
-    <t>95,2%</t>
+    <t>95,21%</t>
   </si>
   <si>
     <t>0,06%</t>
@@ -401,55 +401,55 @@
     <t>3,09%</t>
   </si>
   <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
   </si>
   <si>
     <t>7,61%</t>
   </si>
   <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
   </si>
   <si>
     <t>5,39%</t>
   </si>
   <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
   </si>
   <si>
     <t>96,91%</t>
   </si>
   <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
   </si>
   <si>
     <t>92,39%</t>
   </si>
   <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
   </si>
   <si>
     <t>94,61%</t>
   </si>
   <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -470,55 +470,55 @@
     <t>2,85%</t>
   </si>
   <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
   </si>
   <si>
     <t>8,72%</t>
   </si>
   <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
   </si>
   <si>
     <t>5,73%</t>
   </si>
   <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
   </si>
   <si>
     <t>97,15%</t>
   </si>
   <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
   </si>
   <si>
     <t>91,28%</t>
   </si>
   <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
   </si>
   <si>
     <t>94,27%</t>
   </si>
   <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
   </si>
   <si>
     <t>0,35%</t>
@@ -527,7 +527,7 @@
     <t>3,82%</t>
   </si>
   <si>
-    <t>2,51%</t>
+    <t>2,42%</t>
   </si>
   <si>
     <t>5,76%</t>
@@ -536,604 +536,580 @@
     <t>13,82%</t>
   </si>
   <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
   </si>
   <si>
     <t>8,81%</t>
   </si>
   <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de depresión o ansiedad en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>78,35%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
     <t>7,26%</t>
   </si>
   <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
   </si>
   <si>
     <t>92,74%</t>
   </si>
   <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
   </si>
   <si>
     <t>9,45%</t>
   </si>
   <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
   </si>
   <si>
     <t>90,55%</t>
   </si>
   <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de depresión o ansiedad en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
+    <t>93,12%</t>
   </si>
   <si>
     <t>3,26%</t>
   </si>
   <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
   </si>
   <si>
     <t>10,19%</t>
   </si>
   <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
   </si>
   <si>
     <t>96,74%</t>
   </si>
   <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
   </si>
   <si>
     <t>89,81%</t>
   </si>
   <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
   </si>
   <si>
     <t>Población con diagnóstico de depresión o ansiedad en 2023 (Tasa respuesta: 100,0%)</t>
@@ -1623,7 +1599,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA537F88-3F35-4604-875B-DD8E175E3B79}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFF41E11-26C6-44B0-99EA-9CB6301D1F1A}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2037,10 +2013,10 @@
         <v>43</v>
       </c>
       <c r="P9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2055,13 +2031,13 @@
         <v>562363</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="H10" s="7">
         <v>531</v>
@@ -2070,13 +2046,13 @@
         <v>538909</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="M10" s="7">
         <v>1092</v>
@@ -2085,13 +2061,13 @@
         <v>1101272</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>53</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2147,7 +2123,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2165,7 +2141,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2180,7 +2156,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2195,7 +2171,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2210,13 +2186,13 @@
         <v>28114</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="H13" s="7">
         <v>69</v>
@@ -2225,13 +2201,13 @@
         <v>75560</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="M13" s="7">
         <v>95</v>
@@ -2240,13 +2216,13 @@
         <v>103674</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2261,13 +2237,13 @@
         <v>933686</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="H14" s="7">
         <v>839</v>
@@ -2276,13 +2252,13 @@
         <v>892833</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="M14" s="7">
         <v>1709</v>
@@ -2291,13 +2267,13 @@
         <v>1826519</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2353,7 +2329,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2371,37 +2347,37 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2416,13 +2392,13 @@
         <v>23833</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H17" s="7">
         <v>55</v>
@@ -2431,13 +2407,13 @@
         <v>54120</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M17" s="7">
         <v>80</v>
@@ -2446,13 +2422,13 @@
         <v>77953</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2467,13 +2443,13 @@
         <v>654676</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H18" s="7">
         <v>641</v>
@@ -2482,13 +2458,13 @@
         <v>629721</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M18" s="7">
         <v>1257</v>
@@ -2497,13 +2473,13 @@
         <v>1284397</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2876,7 +2852,7 @@
         <v>3110</v>
       </c>
       <c r="D26" s="7">
-        <v>3175170</v>
+        <v>3175169</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>128</v>
@@ -2927,7 +2903,7 @@
         <v>3214</v>
       </c>
       <c r="D27" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>26</v>
@@ -2992,7 +2968,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4C92D5D-6B4F-4F9A-BB2B-30E1D2830166}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{027D55FA-DEF2-4E54-AD60-77FF03F00B97}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3516,7 +3492,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3579,13 +3555,13 @@
         <v>47963</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H13" s="7">
         <v>106</v>
@@ -3594,13 +3570,13 @@
         <v>116703</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M13" s="7">
         <v>149</v>
@@ -3609,13 +3585,13 @@
         <v>164666</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3630,13 +3606,13 @@
         <v>969984</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H14" s="7">
         <v>832</v>
@@ -3645,13 +3621,13 @@
         <v>912270</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M14" s="7">
         <v>1725</v>
@@ -3660,13 +3636,13 @@
         <v>1882254</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3722,7 +3698,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3740,7 +3716,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3755,7 +3731,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3770,7 +3746,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3785,13 +3761,13 @@
         <v>24931</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H17" s="7">
         <v>73</v>
@@ -3800,13 +3776,13 @@
         <v>77966</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M17" s="7">
         <v>92</v>
@@ -3815,13 +3791,13 @@
         <v>102897</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3836,13 +3812,13 @@
         <v>732692</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="H18" s="7">
         <v>632</v>
@@ -3851,13 +3827,13 @@
         <v>699208</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="M18" s="7">
         <v>1302</v>
@@ -3866,13 +3842,13 @@
         <v>1431900</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3946,7 +3922,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3991,13 +3967,13 @@
         <v>44031</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="H21" s="7">
         <v>116</v>
@@ -4006,13 +3982,13 @@
         <v>120302</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="M21" s="7">
         <v>156</v>
@@ -4021,13 +3997,13 @@
         <v>164333</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4042,13 +4018,13 @@
         <v>903708</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="H22" s="7">
         <v>887</v>
@@ -4057,13 +4033,13 @@
         <v>931599</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="M22" s="7">
         <v>1757</v>
@@ -4072,13 +4048,13 @@
         <v>1835307</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4197,13 +4173,13 @@
         <v>142680</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="H25" s="7">
         <v>382</v>
@@ -4212,28 +4188,28 @@
         <v>405603</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="M25" s="7">
         <v>510</v>
       </c>
       <c r="N25" s="7">
-        <v>548284</v>
+        <v>548283</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4248,13 +4224,13 @@
         <v>3284099</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="H26" s="7">
         <v>2914</v>
@@ -4263,13 +4239,13 @@
         <v>3149495</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="M26" s="7">
         <v>5995</v>
@@ -4278,13 +4254,13 @@
         <v>6433594</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4326,7 +4302,7 @@
         <v>6505</v>
       </c>
       <c r="N27" s="7">
-        <v>6981878</v>
+        <v>6981877</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>26</v>
@@ -4361,7 +4337,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA2B8586-8578-4CE8-9823-D2D7B38218D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1AAA10E-F5C4-4D96-B610-2FEB261B56CB}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4378,7 +4354,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4491,37 +4467,37 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4536,13 +4512,13 @@
         <v>4610</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="H5" s="7">
         <v>17</v>
@@ -4551,13 +4527,13 @@
         <v>17036</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="M5" s="7">
         <v>21</v>
@@ -4566,13 +4542,13 @@
         <v>21646</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>264</v>
+        <v>181</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4587,13 +4563,13 @@
         <v>111936</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="H6" s="7">
         <v>98</v>
@@ -4602,13 +4578,13 @@
         <v>96324</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="M6" s="7">
         <v>207</v>
@@ -4617,13 +4593,13 @@
         <v>208260</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>274</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4697,7 +4673,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4727,7 +4703,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4742,13 +4718,13 @@
         <v>13709</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>161</v>
+        <v>275</v>
       </c>
       <c r="H9" s="7">
         <v>59</v>
@@ -4757,13 +4733,13 @@
         <v>61869</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="M9" s="7">
         <v>73</v>
@@ -4772,13 +4748,13 @@
         <v>75578</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>283</v>
+        <v>125</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4793,13 +4769,13 @@
         <v>544545</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>170</v>
+        <v>282</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H10" s="7">
         <v>492</v>
@@ -4808,13 +4784,13 @@
         <v>497610</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="M10" s="7">
         <v>1017</v>
@@ -4823,13 +4799,13 @@
         <v>1042155</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>292</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4885,7 +4861,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4948,13 +4924,13 @@
         <v>22492</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="H13" s="7">
         <v>85</v>
@@ -4963,13 +4939,13 @@
         <v>94301</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="M13" s="7">
         <v>107</v>
@@ -4978,13 +4954,13 @@
         <v>116793</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4999,13 +4975,13 @@
         <v>999939</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H14" s="7">
         <v>892</v>
@@ -5014,13 +4990,13 @@
         <v>948612</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="M14" s="7">
         <v>1821</v>
@@ -5029,13 +5005,13 @@
         <v>1948551</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5091,7 +5067,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5109,7 +5085,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5124,7 +5100,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5139,7 +5115,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5154,13 +5130,13 @@
         <v>27756</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="H17" s="7">
         <v>66</v>
@@ -5169,13 +5145,13 @@
         <v>72276</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="M17" s="7">
         <v>92</v>
@@ -5184,13 +5160,13 @@
         <v>100032</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5205,13 +5181,13 @@
         <v>731796</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="H18" s="7">
         <v>670</v>
@@ -5220,13 +5196,13 @@
         <v>712735</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="M18" s="7">
         <v>1340</v>
@@ -5235,13 +5211,13 @@
         <v>1444531</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5315,7 +5291,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5360,13 +5336,13 @@
         <v>42002</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>62</v>
+        <v>329</v>
       </c>
       <c r="H21" s="7">
         <v>101</v>
@@ -5375,13 +5351,13 @@
         <v>115714</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>333</v>
+        <v>294</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="M21" s="7">
         <v>142</v>
@@ -5390,13 +5366,13 @@
         <v>157716</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5411,13 +5387,13 @@
         <v>895565</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>72</v>
+        <v>336</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="H22" s="7">
         <v>858</v>
@@ -5426,13 +5402,13 @@
         <v>928065</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>341</v>
+        <v>302</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="M22" s="7">
         <v>1749</v>
@@ -5441,13 +5417,13 @@
         <v>1823630</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5566,13 +5542,13 @@
         <v>110570</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="H25" s="7">
         <v>328</v>
@@ -5581,13 +5557,13 @@
         <v>361195</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>352</v>
+        <v>236</v>
       </c>
       <c r="M25" s="7">
         <v>435</v>
@@ -5596,13 +5572,13 @@
         <v>471765</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>353</v>
+        <v>297</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5617,13 +5593,13 @@
         <v>3283780</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="H26" s="7">
         <v>3010</v>
@@ -5632,13 +5608,13 @@
         <v>3183347</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>360</v>
+        <v>245</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="M26" s="7">
         <v>6134</v>
@@ -5647,13 +5623,13 @@
         <v>6467127</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>362</v>
+        <v>305</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5730,7 +5706,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB1327E0-0981-41E7-BEF3-506DB574D91B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3030D5DA-196B-4455-86ED-38C637CBF061}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5747,7 +5723,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5857,7 +5833,7 @@
         <v>24</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>26</v>
@@ -5872,7 +5848,7 @@
         <v>24</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>26</v>
@@ -5887,7 +5863,7 @@
         <v>24</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>26</v>
@@ -5911,7 +5887,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5926,7 +5902,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -5941,7 +5917,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5962,7 +5938,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5977,7 +5953,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -5992,7 +5968,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6063,7 +6039,7 @@
         <v>24</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>26</v>
@@ -6078,7 +6054,7 @@
         <v>24</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>26</v>
@@ -6093,7 +6069,7 @@
         <v>24</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>26</v>
@@ -6117,7 +6093,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -6147,7 +6123,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6168,7 +6144,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -6198,7 +6174,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6254,7 +6230,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -6269,7 +6245,7 @@
         <v>24</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>26</v>
@@ -6284,7 +6260,7 @@
         <v>24</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>26</v>
@@ -6299,7 +6275,7 @@
         <v>24</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>26</v>
@@ -6338,7 +6314,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -6353,7 +6329,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6389,7 +6365,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -6404,7 +6380,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6460,7 +6436,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6475,7 +6451,7 @@
         <v>24</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>26</v>
@@ -6490,7 +6466,7 @@
         <v>24</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>26</v>
@@ -6505,7 +6481,7 @@
         <v>24</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>26</v>
@@ -6529,7 +6505,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -6544,7 +6520,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -6559,7 +6535,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6580,7 +6556,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -6595,7 +6571,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -6610,7 +6586,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6681,7 +6657,7 @@
         <v>24</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>26</v>
@@ -6696,7 +6672,7 @@
         <v>24</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>26</v>
@@ -6711,7 +6687,7 @@
         <v>24</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>26</v>
@@ -6750,7 +6726,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -6765,7 +6741,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6801,7 +6777,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -6816,7 +6792,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6887,7 +6863,7 @@
         <v>24</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>26</v>
@@ -6902,7 +6878,7 @@
         <v>24</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>26</v>
@@ -6917,7 +6893,7 @@
         <v>24</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>26</v>
@@ -6956,7 +6932,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -6971,7 +6947,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7007,7 +6983,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -7022,7 +6998,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P1423-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1423-Habitat-trans_orig.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{028C6A18-6FB5-45F6-922E-82637664D173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{06F82B5E-21FB-48DE-837B-C39197656002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{65E2239F-9177-4352-9D32-A0A5E9DE9F97}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{6F8CA5B3-8F1F-4562-AA13-301F7678F5B9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
     <sheet name="2016" sheetId="4" r:id="rId3"/>
+    <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="352">
   <si>
     <t>Población con diagnóstico de depresión o ansiedad en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -67,934 +68,1033 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de depresión o ansiedad en 2012 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de depresión o ansiedad en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
   </si>
   <si>
     <t>3,2%</t>
   </si>
   <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
   </si>
   <si>
     <t>6,26%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
   </si>
   <si>
     <t>93,74%</t>
   </si>
   <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de depresión o ansiedad en 2012 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
+    <t>Población con diagnóstico de depresión o ansiedad en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
   </si>
   <si>
     <t>13,82%</t>
   </si>
   <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
   </si>
   <si>
     <t>86,18%</t>
   </si>
   <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de depresión o ansiedad en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
   </si>
   <si>
     <t>9,33%</t>
   </si>
   <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
   </si>
   <si>
     <t>90,67%</t>
   </si>
   <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
+    <t>92,72%</t>
   </si>
 </sst>
 </file>
@@ -1406,8 +1506,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1D940BD-B754-42A6-94C3-A29666C50190}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C14A654-B5F3-4CA8-91DB-B502D72256F5}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1524,10 +1624,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>16291</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1539,10 +1639,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="I4" s="7">
-        <v>7936</v>
+        <v>44622</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1554,10 +1654,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="N4" s="7">
-        <v>7936</v>
+        <v>60914</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1575,10 +1675,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>105</v>
+        <v>666</v>
       </c>
       <c r="D5" s="7">
-        <v>115358</v>
+        <v>677721</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1590,10 +1690,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>119</v>
+        <v>650</v>
       </c>
       <c r="I5" s="7">
-        <v>104819</v>
+        <v>643729</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1605,10 +1705,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>224</v>
+        <v>1316</v>
       </c>
       <c r="N5" s="7">
-        <v>220177</v>
+        <v>1321449</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1626,102 +1726,102 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>105</v>
+        <v>683</v>
       </c>
       <c r="D6" s="7">
-        <v>115358</v>
+        <v>694012</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="I6" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>233</v>
+        <v>1379</v>
       </c>
       <c r="N6" s="7">
-        <v>228113</v>
+        <v>1382363</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D7" s="7">
-        <v>16291</v>
+        <v>28114</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
+        <v>69</v>
+      </c>
+      <c r="I7" s="7">
+        <v>75560</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="7">
-        <v>36687</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>36</v>
-      </c>
       <c r="M7" s="7">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="N7" s="7">
-        <v>52978</v>
+        <v>103674</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1730,49 +1830,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>561</v>
+        <v>870</v>
       </c>
       <c r="D8" s="7">
-        <v>562363</v>
+        <v>933686</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>531</v>
+        <v>839</v>
       </c>
       <c r="I8" s="7">
-        <v>538909</v>
+        <v>892833</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>1092</v>
+        <v>1709</v>
       </c>
       <c r="N8" s="7">
-        <v>1101272</v>
+        <v>1826519</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1781,102 +1881,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>578</v>
+        <v>896</v>
       </c>
       <c r="D9" s="7">
-        <v>578654</v>
+        <v>961800</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>568</v>
+        <v>908</v>
       </c>
       <c r="I9" s="7">
-        <v>575596</v>
+        <v>968393</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1146</v>
+        <v>1804</v>
       </c>
       <c r="N9" s="7">
-        <v>1154250</v>
+        <v>1930193</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="7">
-        <v>28114</v>
+        <v>23833</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="I10" s="7">
-        <v>75560</v>
+        <v>54120</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="N10" s="7">
-        <v>103674</v>
+        <v>77953</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1885,49 +1985,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>870</v>
+        <v>616</v>
       </c>
       <c r="D11" s="7">
-        <v>933686</v>
+        <v>654676</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>839</v>
+        <v>641</v>
       </c>
       <c r="I11" s="7">
-        <v>892833</v>
+        <v>629721</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1709</v>
+        <v>1257</v>
       </c>
       <c r="N11" s="7">
-        <v>1826519</v>
+        <v>1284397</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1936,102 +2036,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>896</v>
+        <v>641</v>
       </c>
       <c r="D12" s="7">
-        <v>961800</v>
+        <v>678509</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>908</v>
+        <v>696</v>
       </c>
       <c r="I12" s="7">
-        <v>968393</v>
+        <v>683841</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1804</v>
+        <v>1337</v>
       </c>
       <c r="N12" s="7">
-        <v>1930193</v>
+        <v>1362350</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D13" s="7">
-        <v>23833</v>
+        <v>33136</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="I13" s="7">
-        <v>54120</v>
+        <v>82820</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="N13" s="7">
-        <v>77953</v>
+        <v>115955</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2040,49 +2140,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>616</v>
+        <v>958</v>
       </c>
       <c r="D14" s="7">
-        <v>654676</v>
+        <v>909086</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>641</v>
+        <v>919</v>
       </c>
       <c r="I14" s="7">
-        <v>629721</v>
+        <v>955792</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>1257</v>
+        <v>1877</v>
       </c>
       <c r="N14" s="7">
-        <v>1284397</v>
+        <v>1864879</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2091,63 +2191,63 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>641</v>
+        <v>994</v>
       </c>
       <c r="D15" s="7">
-        <v>678509</v>
+        <v>942222</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="I15" s="7">
-        <v>683841</v>
+        <v>1038612</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1337</v>
+        <v>1991</v>
       </c>
       <c r="N15" s="7">
-        <v>1362350</v>
+        <v>1980834</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>36</v>
+        <v>104</v>
       </c>
       <c r="D16" s="7">
-        <v>33136</v>
+        <v>101374</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>88</v>
@@ -2159,34 +2259,34 @@
         <v>90</v>
       </c>
       <c r="H16" s="7">
-        <v>78</v>
+        <v>248</v>
       </c>
       <c r="I16" s="7">
-        <v>82820</v>
+        <v>257122</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
-        <v>114</v>
+        <v>352</v>
       </c>
       <c r="N16" s="7">
-        <v>115955</v>
+        <v>358496</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2195,49 +2295,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>958</v>
+        <v>3110</v>
       </c>
       <c r="D17" s="7">
-        <v>909086</v>
+        <v>3175169</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
-        <v>919</v>
+        <v>3049</v>
       </c>
       <c r="I17" s="7">
-        <v>955792</v>
+        <v>3122075</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
-        <v>1877</v>
+        <v>6159</v>
       </c>
       <c r="N17" s="7">
-        <v>1864879</v>
+        <v>6297245</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2246,217 +2346,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>994</v>
+        <v>3214</v>
       </c>
       <c r="D18" s="7">
-        <v>942222</v>
+        <v>3276543</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>997</v>
+        <v>3297</v>
       </c>
       <c r="I18" s="7">
-        <v>1038612</v>
+        <v>3379197</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1991</v>
+        <v>6511</v>
       </c>
       <c r="N18" s="7">
-        <v>1980834</v>
+        <v>6655741</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>104</v>
-      </c>
-      <c r="D19" s="7">
-        <v>101374</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="A19" t="s">
         <v>106</v>
       </c>
-      <c r="H19" s="7">
-        <v>248</v>
-      </c>
-      <c r="I19" s="7">
-        <v>257122</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="M19" s="7">
-        <v>352</v>
-      </c>
-      <c r="N19" s="7">
-        <v>358496</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3110</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3175170</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3049</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3122076</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6159</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6297244</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3214</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6511</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>122</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2469,8 +2413,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06D59533-05D3-4DE2-9DAC-AFB8D7D13645}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE6BDB0D-E322-4B68-8F04-649B0FA1D5ED}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2486,7 +2430,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2587,49 +2531,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="D4" s="7">
-        <v>3294</v>
+        <v>25756</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="I4" s="7">
-        <v>9759</v>
+        <v>90632</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="M4" s="7">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="N4" s="7">
-        <v>13053</v>
+        <v>116388</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>132</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2638,49 +2582,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>648</v>
+      </c>
+      <c r="D5" s="7">
+        <v>677713</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D5" s="7">
-        <v>112471</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>135</v>
-      </c>
       <c r="H5" s="7">
-        <v>90</v>
+        <v>563</v>
       </c>
       <c r="I5" s="7">
-        <v>102146</v>
+        <v>606418</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="M5" s="7">
-        <v>208</v>
+        <v>1211</v>
       </c>
       <c r="N5" s="7">
-        <v>214617</v>
+        <v>1284131</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>140</v>
+        <v>45</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2689,102 +2633,102 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>122</v>
+        <v>674</v>
       </c>
       <c r="D6" s="7">
-        <v>115765</v>
+        <v>703469</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>697050</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>221</v>
+        <v>1324</v>
       </c>
       <c r="N6" s="7">
-        <v>227670</v>
+        <v>1400519</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="D7" s="7">
-        <v>22462</v>
+        <v>47963</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="H7" s="7">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="I7" s="7">
-        <v>80873</v>
+        <v>116703</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="M7" s="7">
-        <v>100</v>
+        <v>149</v>
       </c>
       <c r="N7" s="7">
-        <v>103335</v>
+        <v>164666</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2793,49 +2737,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>530</v>
+        <v>893</v>
       </c>
       <c r="D8" s="7">
-        <v>565242</v>
+        <v>969984</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="H8" s="7">
-        <v>473</v>
+        <v>832</v>
       </c>
       <c r="I8" s="7">
-        <v>504272</v>
+        <v>912270</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="M8" s="7">
-        <v>1003</v>
+        <v>1725</v>
       </c>
       <c r="N8" s="7">
-        <v>1069514</v>
+        <v>1882255</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2844,102 +2788,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>552</v>
+        <v>936</v>
       </c>
       <c r="D9" s="7">
-        <v>587704</v>
+        <v>1017947</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>938</v>
       </c>
       <c r="I9" s="7">
-        <v>585145</v>
+        <v>1028973</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1103</v>
+        <v>1874</v>
       </c>
       <c r="N9" s="7">
-        <v>1172849</v>
+        <v>2046921</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="D10" s="7">
-        <v>47963</v>
+        <v>24931</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="H10" s="7">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="I10" s="7">
-        <v>116703</v>
+        <v>77966</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="M10" s="7">
+        <v>92</v>
+      </c>
+      <c r="N10" s="7">
+        <v>102897</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="N10" s="7">
-        <v>164666</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>167</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2948,49 +2892,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>893</v>
+        <v>670</v>
       </c>
       <c r="D11" s="7">
-        <v>969984</v>
+        <v>732692</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="H11" s="7">
-        <v>832</v>
+        <v>632</v>
       </c>
       <c r="I11" s="7">
-        <v>912270</v>
+        <v>699208</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="M11" s="7">
-        <v>1725</v>
+        <v>1302</v>
       </c>
       <c r="N11" s="7">
-        <v>1882254</v>
+        <v>1431900</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2999,102 +2943,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>936</v>
+        <v>689</v>
       </c>
       <c r="D12" s="7">
-        <v>1017947</v>
+        <v>757623</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>938</v>
+        <v>705</v>
       </c>
       <c r="I12" s="7">
-        <v>1028973</v>
+        <v>777174</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1874</v>
+        <v>1394</v>
       </c>
       <c r="N12" s="7">
-        <v>2046920</v>
+        <v>1534797</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D13" s="7">
-        <v>24931</v>
+        <v>44031</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="H13" s="7">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="I13" s="7">
-        <v>77966</v>
+        <v>120302</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="M13" s="7">
-        <v>92</v>
+        <v>156</v>
       </c>
       <c r="N13" s="7">
-        <v>102897</v>
+        <v>164333</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3103,49 +3047,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>670</v>
+        <v>870</v>
       </c>
       <c r="D14" s="7">
-        <v>732692</v>
+        <v>903708</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>188</v>
+        <v>48</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="H14" s="7">
-        <v>632</v>
+        <v>887</v>
       </c>
       <c r="I14" s="7">
-        <v>699208</v>
+        <v>931599</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="M14" s="7">
-        <v>1302</v>
+        <v>1757</v>
       </c>
       <c r="N14" s="7">
-        <v>1431900</v>
+        <v>1835307</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3154,102 +3098,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>689</v>
+        <v>910</v>
       </c>
       <c r="D15" s="7">
-        <v>757623</v>
+        <v>947739</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>705</v>
+        <v>1003</v>
       </c>
       <c r="I15" s="7">
-        <v>777174</v>
+        <v>1051901</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1394</v>
+        <v>1913</v>
       </c>
       <c r="N15" s="7">
-        <v>1534797</v>
+        <v>1999640</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="D16" s="7">
-        <v>44031</v>
+        <v>142680</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>35</v>
+        <v>176</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>58</v>
+        <v>178</v>
       </c>
       <c r="H16" s="7">
-        <v>116</v>
+        <v>382</v>
       </c>
       <c r="I16" s="7">
-        <v>120302</v>
+        <v>405603</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="M16" s="7">
-        <v>156</v>
+        <v>510</v>
       </c>
       <c r="N16" s="7">
-        <v>164333</v>
+        <v>548283</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3258,49 +3202,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>870</v>
+        <v>3081</v>
       </c>
       <c r="D17" s="7">
-        <v>903708</v>
+        <v>3284099</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>45</v>
+        <v>185</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>66</v>
+        <v>186</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="H17" s="7">
-        <v>887</v>
+        <v>2914</v>
       </c>
       <c r="I17" s="7">
-        <v>931599</v>
+        <v>3149495</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="M17" s="7">
-        <v>1757</v>
+        <v>5995</v>
       </c>
       <c r="N17" s="7">
-        <v>1835307</v>
+        <v>6433594</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3309,217 +3253,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>910</v>
+        <v>3209</v>
       </c>
       <c r="D18" s="7">
-        <v>947739</v>
+        <v>3426779</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1003</v>
+        <v>3296</v>
       </c>
       <c r="I18" s="7">
-        <v>1051901</v>
+        <v>3555098</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1913</v>
+        <v>6505</v>
       </c>
       <c r="N18" s="7">
-        <v>1999640</v>
+        <v>6981877</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>128</v>
-      </c>
-      <c r="D19" s="7">
-        <v>142680</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="H19" s="7">
-        <v>382</v>
-      </c>
-      <c r="I19" s="7">
-        <v>405603</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="M19" s="7">
-        <v>510</v>
-      </c>
-      <c r="N19" s="7">
-        <v>548283</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3081</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3284099</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2914</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3149495</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="M20" s="7">
-        <v>5995</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6433594</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3209</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3426779</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3296</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3555098</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6505</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6981877</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>122</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3532,8 +3320,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3122605A-E7FF-472D-B7C1-10FB88710C77}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E10750-4935-46D1-B97B-7078E1EE275F}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3549,7 +3337,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>228</v>
+        <v>194</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3650,49 +3438,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D4" s="7">
-        <v>4610</v>
+        <v>18319</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>230</v>
+        <v>196</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>231</v>
+        <v>197</v>
       </c>
       <c r="H4" s="7">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="I4" s="7">
-        <v>17036</v>
+        <v>78905</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>233</v>
+        <v>199</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="M4" s="7">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="N4" s="7">
-        <v>21646</v>
+        <v>97224</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>235</v>
+        <v>201</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>236</v>
+        <v>202</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>237</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3701,49 +3489,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>109</v>
+        <v>634</v>
       </c>
       <c r="D5" s="7">
-        <v>111936</v>
+        <v>656481</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>238</v>
+        <v>204</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>239</v>
+        <v>205</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>240</v>
+        <v>206</v>
       </c>
       <c r="H5" s="7">
-        <v>98</v>
+        <v>590</v>
       </c>
       <c r="I5" s="7">
-        <v>96324</v>
+        <v>593934</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>241</v>
+        <v>207</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>242</v>
+        <v>208</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>243</v>
+        <v>209</v>
       </c>
       <c r="M5" s="7">
-        <v>207</v>
+        <v>1224</v>
       </c>
       <c r="N5" s="7">
-        <v>208260</v>
+        <v>1250415</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>244</v>
+        <v>210</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>245</v>
+        <v>211</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>246</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3752,102 +3540,102 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D6" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>228</v>
+        <v>1318</v>
       </c>
       <c r="N6" s="7">
-        <v>229906</v>
+        <v>1347639</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D7" s="7">
-        <v>13709</v>
+        <v>22492</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>143</v>
+        <v>213</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>247</v>
+        <v>214</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="H7" s="7">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="I7" s="7">
-        <v>61869</v>
+        <v>94301</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>250</v>
+        <v>217</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>251</v>
+        <v>218</v>
       </c>
       <c r="M7" s="7">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="N7" s="7">
-        <v>75578</v>
+        <v>116793</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>252</v>
+        <v>219</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>253</v>
+        <v>220</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>254</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3856,49 +3644,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>525</v>
+        <v>929</v>
       </c>
       <c r="D8" s="7">
-        <v>544545</v>
+        <v>999939</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>153</v>
+        <v>222</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="H8" s="7">
-        <v>492</v>
+        <v>892</v>
       </c>
       <c r="I8" s="7">
-        <v>497610</v>
+        <v>948612</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>257</v>
+        <v>225</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="M8" s="7">
-        <v>1017</v>
+        <v>1821</v>
       </c>
       <c r="N8" s="7">
-        <v>1042155</v>
+        <v>1948551</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>260</v>
+        <v>228</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>262</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3907,102 +3695,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>539</v>
+        <v>951</v>
       </c>
       <c r="D9" s="7">
-        <v>558254</v>
+        <v>1022431</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="I9" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1090</v>
+        <v>1928</v>
       </c>
       <c r="N9" s="7">
-        <v>1117733</v>
+        <v>2065344</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D10" s="7">
-        <v>22492</v>
+        <v>27756</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>15</v>
+        <v>233</v>
       </c>
       <c r="H10" s="7">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="I10" s="7">
-        <v>94301</v>
+        <v>72276</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>265</v>
+        <v>234</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>266</v>
+        <v>235</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="M10" s="7">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="N10" s="7">
-        <v>116793</v>
+        <v>100032</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>267</v>
+        <v>14</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4011,49 +3799,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>929</v>
+        <v>670</v>
       </c>
       <c r="D11" s="7">
-        <v>999939</v>
+        <v>731796</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>26</v>
+        <v>240</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>270</v>
+        <v>241</v>
       </c>
       <c r="H11" s="7">
-        <v>892</v>
+        <v>670</v>
       </c>
       <c r="I11" s="7">
-        <v>948612</v>
+        <v>712735</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>272</v>
+        <v>244</v>
       </c>
       <c r="M11" s="7">
-        <v>1821</v>
+        <v>1340</v>
       </c>
       <c r="N11" s="7">
-        <v>1948551</v>
+        <v>1444531</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>273</v>
+        <v>24</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4062,102 +3850,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="D12" s="7">
-        <v>1022431</v>
+        <v>759552</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I12" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1928</v>
+        <v>1432</v>
       </c>
       <c r="N12" s="7">
-        <v>2065344</v>
+        <v>1544563</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D13" s="7">
-        <v>27756</v>
+        <v>42002</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>143</v>
+        <v>248</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
       <c r="H13" s="7">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="I13" s="7">
-        <v>72276</v>
+        <v>115714</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>277</v>
+        <v>250</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>149</v>
+        <v>251</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="M13" s="7">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="N13" s="7">
-        <v>100032</v>
+        <v>157716</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>281</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4166,49 +3954,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>670</v>
+        <v>891</v>
       </c>
       <c r="D14" s="7">
-        <v>731796</v>
+        <v>895565</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>282</v>
+        <v>256</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>283</v>
+        <v>257</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>153</v>
+        <v>258</v>
       </c>
       <c r="H14" s="7">
-        <v>670</v>
+        <v>858</v>
       </c>
       <c r="I14" s="7">
-        <v>712735</v>
+        <v>928065</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>284</v>
+        <v>259</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>285</v>
+        <v>260</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>159</v>
+        <v>261</v>
       </c>
       <c r="M14" s="7">
-        <v>1340</v>
+        <v>1749</v>
       </c>
       <c r="N14" s="7">
-        <v>1444531</v>
+        <v>1823630</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>286</v>
+        <v>262</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4217,102 +4005,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>696</v>
+        <v>932</v>
       </c>
       <c r="D15" s="7">
-        <v>759552</v>
+        <v>937567</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="I15" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1432</v>
+        <v>1891</v>
       </c>
       <c r="N15" s="7">
-        <v>1544563</v>
+        <v>1981346</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="D16" s="7">
-        <v>42002</v>
+        <v>110570</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>289</v>
+        <v>248</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>290</v>
+        <v>195</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
       <c r="H16" s="7">
-        <v>101</v>
+        <v>328</v>
       </c>
       <c r="I16" s="7">
-        <v>115714</v>
+        <v>361195</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>293</v>
+        <v>251</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>294</v>
+        <v>267</v>
       </c>
       <c r="M16" s="7">
-        <v>142</v>
+        <v>435</v>
       </c>
       <c r="N16" s="7">
-        <v>157716</v>
+        <v>471765</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>295</v>
+        <v>268</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>296</v>
+        <v>269</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>297</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4321,49 +4109,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>891</v>
+        <v>3124</v>
       </c>
       <c r="D17" s="7">
-        <v>895565</v>
+        <v>3283780</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>298</v>
+        <v>258</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>299</v>
+        <v>271</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>300</v>
+        <v>204</v>
       </c>
       <c r="H17" s="7">
-        <v>858</v>
+        <v>3010</v>
       </c>
       <c r="I17" s="7">
-        <v>928065</v>
+        <v>3183347</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>301</v>
+        <v>272</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>303</v>
+        <v>261</v>
       </c>
       <c r="M17" s="7">
-        <v>1749</v>
+        <v>6134</v>
       </c>
       <c r="N17" s="7">
-        <v>1823630</v>
+        <v>6467127</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>304</v>
+        <v>274</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>305</v>
+        <v>275</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>306</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4372,217 +4160,968 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>932</v>
+        <v>3231</v>
       </c>
       <c r="D18" s="7">
-        <v>937567</v>
+        <v>3394350</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="I18" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1891</v>
+        <v>6569</v>
       </c>
       <c r="N18" s="7">
-        <v>1981346</v>
+        <v>6938892</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>107</v>
-      </c>
-      <c r="D19" s="7">
-        <v>110570</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="H19" s="7">
-        <v>328</v>
-      </c>
-      <c r="I19" s="7">
-        <v>361195</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="M19" s="7">
-        <v>435</v>
-      </c>
-      <c r="N19" s="7">
-        <v>471765</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3124</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3283780</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3010</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3183347</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6134</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6467127</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6569</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6938892</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>122</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19E48A00-F770-4407-804D-4CEC3A996655}">
+  <dimension ref="A1:Q19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="17" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7">
+        <v>56</v>
+      </c>
+      <c r="D4" s="7">
+        <v>48701</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="H4" s="7">
+        <v>151</v>
+      </c>
+      <c r="I4" s="7">
+        <v>76039</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="M4" s="7">
+        <v>207</v>
+      </c>
+      <c r="N4" s="7">
+        <v>124739</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7">
+        <v>674</v>
+      </c>
+      <c r="D5" s="7">
+        <v>586740</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1090</v>
+      </c>
+      <c r="I5" s="7">
+        <v>649291</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="M5" s="7">
+        <v>1764</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1236033</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7">
+        <v>730</v>
+      </c>
+      <c r="D6" s="7">
+        <v>635441</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
+        <v>1241</v>
+      </c>
+      <c r="I6" s="7">
+        <v>725330</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="7">
+        <v>1971</v>
+      </c>
+      <c r="N6" s="7">
+        <v>1360772</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7">
+        <v>51</v>
+      </c>
+      <c r="D7" s="7">
+        <v>44657</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="H7" s="7">
+        <v>181</v>
+      </c>
+      <c r="I7" s="7">
+        <v>108805</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="M7" s="7">
+        <v>232</v>
+      </c>
+      <c r="N7" s="7">
+        <v>153461</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="7">
+        <v>913</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1148207</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="H8" s="7">
+        <v>1336</v>
+      </c>
+      <c r="I8" s="7">
+        <v>849846</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="M8" s="7">
+        <v>2249</v>
+      </c>
+      <c r="N8" s="7">
+        <v>1998055</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="7">
+        <v>964</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1192864</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
+        <v>1517</v>
+      </c>
+      <c r="I9" s="7">
+        <v>958651</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="7">
+        <v>2481</v>
+      </c>
+      <c r="N9" s="7">
+        <v>2151516</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="7">
+        <v>40</v>
+      </c>
+      <c r="D10" s="7">
+        <v>40951</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="H10" s="7">
+        <v>149</v>
+      </c>
+      <c r="I10" s="7">
+        <v>97737</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="M10" s="7">
+        <v>189</v>
+      </c>
+      <c r="N10" s="7">
+        <v>138688</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="7">
+        <v>636</v>
+      </c>
+      <c r="D11" s="7">
+        <v>663729</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="H11" s="7">
+        <v>898</v>
+      </c>
+      <c r="I11" s="7">
+        <v>835629</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="M11" s="7">
+        <v>1534</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1499358</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="7">
+        <v>676</v>
+      </c>
+      <c r="D12" s="7">
+        <v>704680</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
+        <v>1047</v>
+      </c>
+      <c r="I12" s="7">
+        <v>933366</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="7">
+        <v>1723</v>
+      </c>
+      <c r="N12" s="7">
+        <v>1638046</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="7">
+        <v>76</v>
+      </c>
+      <c r="D13" s="7">
+        <v>63059</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="H13" s="7">
+        <v>211</v>
+      </c>
+      <c r="I13" s="7">
+        <v>130546</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="M13" s="7">
+        <v>287</v>
+      </c>
+      <c r="N13" s="7">
+        <v>193605</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="7">
+        <v>930</v>
+      </c>
+      <c r="D14" s="7">
+        <v>863772</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="H14" s="7">
+        <v>1351</v>
+      </c>
+      <c r="I14" s="7">
+        <v>964386</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="M14" s="7">
+        <v>2281</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1828158</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1006</v>
+      </c>
+      <c r="D15" s="7">
+        <v>926831</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>1562</v>
+      </c>
+      <c r="I15" s="7">
+        <v>1094932</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>2568</v>
+      </c>
+      <c r="N15" s="7">
+        <v>2021763</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>223</v>
+      </c>
+      <c r="D16" s="7">
+        <v>197367</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="H16" s="7">
+        <v>692</v>
+      </c>
+      <c r="I16" s="7">
+        <v>413127</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="M16" s="7">
+        <v>915</v>
+      </c>
+      <c r="N16" s="7">
+        <v>610494</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>3153</v>
+      </c>
+      <c r="D17" s="7">
+        <v>3262450</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="H17" s="7">
+        <v>4675</v>
+      </c>
+      <c r="I17" s="7">
+        <v>3299153</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="M17" s="7">
+        <v>7828</v>
+      </c>
+      <c r="N17" s="7">
+        <v>6561603</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
+        <v>3376</v>
+      </c>
+      <c r="D18" s="7">
+        <v>3459817</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
+        <v>5367</v>
+      </c>
+      <c r="I18" s="7">
+        <v>3712280</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
+        <v>8743</v>
+      </c>
+      <c r="N18" s="7">
+        <v>7172097</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
